--- a/output.xlsx
+++ b/output.xlsx
@@ -424,22 +424,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>server_id</t>
+          <t>Server ID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>server_name</t>
+          <t>Server Name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>IPv4</t>
         </is>
       </c>
     </row>
